--- a/WealthNLD.xlsx
+++ b/WealthNLD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/s_j_toussaint_uu_nl/Documents/Research/MTVV_HIST/Household-Wealth/Public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/s_j_toussaint_uu_nl/Documents/Research/MTVV_HIST/WealthNLD/Public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="865" documentId="8_{2C898385-B409-4EFE-BAC0-4FDB581E4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F76EC9-1255-4A82-9170-A3B45BBAC254}"/>
+  <xr:revisionPtr revIDLastSave="867" documentId="8_{2C898385-B409-4EFE-BAC0-4FDB581E4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACCDE434-1D8E-4823-A8A8-8BBF7342D688}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="765" firstSheet="9" activeTab="12" xr2:uid="{8412A1E8-5F18-4E3C-A714-6654105DEFBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="765" activeTab="1" xr2:uid="{8412A1E8-5F18-4E3C-A714-6654105DEFBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <sheet name="Table - Savings Concepts" sheetId="12" r:id="rId13"/>
     <sheet name="Table - Savings Decomposition" sheetId="14" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -813,137 +810,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="realwealthincome"/>
-      <sheetName val="foreignassets"/>
-      <sheetName val="factor_shares"/>
-      <sheetName val="savings_rawdata"/>
-      <sheetName val="annual_savings_capitalgains"/>
-      <sheetName val="multiplicative_decomposition"/>
-      <sheetName val="additive_decomposition"/>
-      <sheetName val="household_mult"/>
-      <sheetName val="Note"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="69">
-          <cell r="K69">
-            <v>506</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="K70">
-            <v>374</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="K71">
-            <v>398</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="K72">
-            <v>442</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="K73">
-            <v>494</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="K74">
-            <v>564</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="K75">
-            <v>553</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="K76">
-            <v>608</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="K77">
-            <v>513</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="K78">
-            <v>519</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="K79">
-            <v>324</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="K80">
-            <v>226</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="K81">
-            <v>182</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="K82">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="K83">
-            <v>182</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="K84">
-            <v>252</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="K85">
-            <v>325</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="K86">
-            <v>357</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="K87">
-            <v>342</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="143">
-          <cell r="AD143">
-            <v>1.0678108632219947</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1244,10 +1110,10 @@
   <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C169" sqref="C169"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7347,10 +7213,10 @@
   <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12439,8 +12305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E32E27E-7AAC-4E55-A6C0-71F07F40E602}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13696,7 +13562,7 @@
   <dimension ref="A1:E596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23842,8 +23708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48B3FA-9B0F-4658-B531-D364DF8AE41F}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24323,10 +24189,10 @@
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD46" sqref="AD46"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28611,11 +28477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B84077-F101-4B25-BF26-9086CA37905D}">
   <dimension ref="A1:X141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38750,13 +38616,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="O121:P121"/>
     <mergeCell ref="O134:P134"/>
     <mergeCell ref="O123:P123"/>
     <mergeCell ref="O124:P124"/>
@@ -38769,12 +38634,13 @@
     <mergeCell ref="O131:P131"/>
     <mergeCell ref="O132:P132"/>
     <mergeCell ref="O133:P133"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="O117:P117"/>
-    <mergeCell ref="O118:P118"/>
-    <mergeCell ref="O119:P119"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="O140:P140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38786,10 +38652,10 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42293,8 +42159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40339ACC-91E4-4773-B6FC-868218E3935D}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43921,10 +43787,10 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="V95" sqref="V95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48231,7 +48097,6 @@
         <v>2761</v>
       </c>
       <c r="D69" s="1">
-        <f>[1]foreignassets!K69</f>
         <v>506</v>
       </c>
       <c r="E69" s="1">
@@ -48298,7 +48163,6 @@
         <v>2655</v>
       </c>
       <c r="D70" s="1">
-        <f>[1]foreignassets!K70</f>
         <v>374</v>
       </c>
       <c r="E70" s="1">
@@ -48365,7 +48229,6 @@
         <v>2527</v>
       </c>
       <c r="D71" s="1">
-        <f>[1]foreignassets!K71</f>
         <v>398</v>
       </c>
       <c r="E71" s="1">
@@ -48432,7 +48295,6 @@
         <v>2520</v>
       </c>
       <c r="D72" s="1">
-        <f>[1]foreignassets!K72</f>
         <v>442</v>
       </c>
       <c r="E72" s="1">
@@ -48499,7 +48361,6 @@
         <v>2527</v>
       </c>
       <c r="D73" s="1">
-        <f>[1]foreignassets!K73</f>
         <v>494</v>
       </c>
       <c r="E73" s="1">
@@ -48566,7 +48427,6 @@
         <v>2596</v>
       </c>
       <c r="D74" s="1">
-        <f>[1]foreignassets!K74</f>
         <v>564</v>
       </c>
       <c r="E74" s="1">
@@ -48633,7 +48493,6 @@
         <v>2657</v>
       </c>
       <c r="D75" s="1">
-        <f>[1]foreignassets!K75</f>
         <v>553</v>
       </c>
       <c r="E75" s="1">
@@ -48700,7 +48559,6 @@
         <v>2758</v>
       </c>
       <c r="D76" s="1">
-        <f>[1]foreignassets!K76</f>
         <v>608</v>
       </c>
       <c r="E76" s="1">
@@ -48767,7 +48625,6 @@
         <v>2882</v>
       </c>
       <c r="D77" s="1">
-        <f>[1]foreignassets!K77</f>
         <v>513</v>
       </c>
       <c r="E77" s="1">
@@ -48834,7 +48691,6 @@
         <v>2981</v>
       </c>
       <c r="D78" s="1">
-        <f>[1]foreignassets!K78</f>
         <v>519</v>
       </c>
       <c r="E78" s="1">
@@ -48901,7 +48757,6 @@
         <v>2913</v>
       </c>
       <c r="D79" s="1">
-        <f>[1]foreignassets!K79</f>
         <v>324</v>
       </c>
       <c r="E79" s="1">
@@ -48968,7 +48823,6 @@
         <v>2566</v>
       </c>
       <c r="D80" s="1">
-        <f>[1]foreignassets!K80</f>
         <v>226</v>
       </c>
       <c r="E80" s="1">
@@ -49035,7 +48889,6 @@
         <v>2473</v>
       </c>
       <c r="D81" s="1">
-        <f>[1]foreignassets!K81</f>
         <v>182</v>
       </c>
       <c r="E81" s="1">
@@ -49102,7 +48955,6 @@
         <v>2413</v>
       </c>
       <c r="D82" s="1">
-        <f>[1]foreignassets!K82</f>
         <v>142</v>
       </c>
       <c r="E82" s="1">
@@ -49169,7 +49021,6 @@
         <v>2305</v>
       </c>
       <c r="D83" s="1">
-        <f>[1]foreignassets!K83</f>
         <v>182</v>
       </c>
       <c r="E83" s="1">
@@ -49236,7 +49087,6 @@
         <v>2273</v>
       </c>
       <c r="D84" s="1">
-        <f>[1]foreignassets!K84</f>
         <v>252</v>
       </c>
       <c r="E84" s="1">
@@ -49303,7 +49153,6 @@
         <v>2391</v>
       </c>
       <c r="D85" s="1">
-        <f>[1]foreignassets!K85</f>
         <v>325</v>
       </c>
       <c r="E85" s="1">
@@ -49370,7 +49219,6 @@
         <v>2489</v>
       </c>
       <c r="D86" s="1">
-        <f>[1]foreignassets!K86</f>
         <v>357</v>
       </c>
       <c r="E86" s="1">
@@ -49437,7 +49285,6 @@
         <v>2585</v>
       </c>
       <c r="D87" s="1">
-        <f>[1]foreignassets!K87</f>
         <v>342</v>
       </c>
       <c r="E87" s="1">
@@ -51463,10 +51310,10 @@
   <dimension ref="A1:AO168"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="AM101" sqref="AM101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67245,8 +67092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A318ABD1-DF89-47E2-9277-520C6A6D40B0}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -68575,7 +68422,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69879,8 +69726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316854B2-2BE6-4F6D-872C-CE50E4C537E9}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
